--- a/data_STK_astrogator/Processed_data/Lumelite3_final_summary.xlsx
+++ b/data_STK_astrogator/Processed_data/Lumelite3_final_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D501F94-D6A1-4E3A-A9FD-A6C22D8D5E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F52436-BB89-42CD-8AA4-87BC792E8E00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13188" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{3F315371-8837-4D5D-BD74-CBA66D1BE71D}"/>
+    <workbookView xWindow="13190" yWindow="1480" windowWidth="17280" windowHeight="8960" xr2:uid="{3F315371-8837-4D5D-BD74-CBA66D1BE71D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -434,20 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A013192-3ACF-47ED-BCE3-4BACA6CC0FDB}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -496,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -513,7 +504,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -539,13 +530,25 @@
         <v>-0.12792799999999999</v>
       </c>
       <c r="I4">
-        <v>-0.60580000000000001</v>
+        <v>-0.36058000000000001</v>
       </c>
       <c r="J4">
         <v>-0.92391000000000001</v>
       </c>
+      <c r="N4">
+        <f>H4^2</f>
+        <v>1.6365573183999997E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:P4" si="0">I4^2</f>
+        <v>0.13001793640000001</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.85360968810000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -561,8 +564,12 @@
       <c r="E5">
         <v>1209600</v>
       </c>
+      <c r="N5">
+        <f>SQRT(SUM(N4:P4))</f>
+        <v>0.99999659883621606</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -593,8 +600,20 @@
       <c r="J6">
         <v>0.73871799999999999</v>
       </c>
+      <c r="N6">
+        <f>H6^2</f>
+        <v>3.5596368900000001E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6" si="1">I6^2</f>
+        <v>0.41869570248899995</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="2">J6^2</f>
+        <v>0.54570428352400002</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -609,6 +628,10 @@
       </c>
       <c r="E7">
         <v>1728000</v>
+      </c>
+      <c r="N7">
+        <f>SQRT(SUM(N6:P6))</f>
+        <v>0.99999817745483921</v>
       </c>
     </row>
   </sheetData>

--- a/data_STK_astrogator/Processed_data/Lumelite3_final_summary.xlsx
+++ b/data_STK_astrogator/Processed_data/Lumelite3_final_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F52436-BB89-42CD-8AA4-87BC792E8E00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E184B-C675-4116-9190-D5C27595B7F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13190" yWindow="1480" windowWidth="17280" windowHeight="8960" xr2:uid="{3F315371-8837-4D5D-BD74-CBA66D1BE71D}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A013192-3ACF-47ED-BCE3-4BACA6CC0FDB}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N4" sqref="N4:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +438,7 @@
     <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,7 +504,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -535,20 +535,8 @@
       <c r="J4">
         <v>-0.92391000000000001</v>
       </c>
-      <c r="N4">
-        <f>H4^2</f>
-        <v>1.6365573183999997E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:P4" si="0">I4^2</f>
-        <v>0.13001793640000001</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.85360968810000004</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -564,12 +552,8 @@
       <c r="E5">
         <v>1209600</v>
       </c>
-      <c r="N5">
-        <f>SQRT(SUM(N4:P4))</f>
-        <v>0.99999659883621606</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -600,20 +584,8 @@
       <c r="J6">
         <v>0.73871799999999999</v>
       </c>
-      <c r="N6">
-        <f>H6^2</f>
-        <v>3.5596368900000001E-2</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6" si="1">I6^2</f>
-        <v>0.41869570248899995</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ref="P6" si="2">J6^2</f>
-        <v>0.54570428352400002</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -628,10 +600,6 @@
       </c>
       <c r="E7">
         <v>1728000</v>
-      </c>
-      <c r="N7">
-        <f>SQRT(SUM(N6:P6))</f>
-        <v>0.99999817745483921</v>
       </c>
     </row>
   </sheetData>
